--- a/MAIN_PCB/DOC/lenght equalization.xlsx
+++ b/MAIN_PCB/DOC/lenght equalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Folder\MCU\decktrix\MAIN_PCB\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB6A86-2949-4584-96D9-7220E9D3DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FDF723-B707-43B7-AAAE-D18C5FD8623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SD card EMMC1" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,11 +552,11 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>35.159999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C2">
         <f>$C$10-B2</f>
-        <v>3.8900000000000006</v>
+        <v>-2.9999999999994031E-2</v>
       </c>
       <c r="D2">
         <v>37.03</v>
@@ -567,11 +567,11 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>35.15</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C7" si="0">$C$10-B3</f>
-        <v>3.8999999999999986</v>
+        <v>-2.9999999999994031E-2</v>
       </c>
       <c r="D3">
         <v>37.6</v>
@@ -582,11 +582,11 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>35.781100000000002</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.268899999999995</v>
+        <v>-2.9999999999994031E-2</v>
       </c>
       <c r="D4">
         <v>38.9</v>
@@ -597,11 +597,11 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>34.71</v>
+        <v>37.06</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>4.3399999999999963</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="D5">
         <v>36.799999999999997</v>
@@ -612,11 +612,11 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>36.25</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.7999999999999972</v>
+        <v>-2.9999999999994031E-2</v>
       </c>
       <c r="D6">
         <v>38.43</v>
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>39.049999999999997</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="C10">
         <f>B7</f>
-        <v>39.049999999999997</v>
+        <v>37.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204ED36E-9E96-44DA-B07B-B959B3E9CF21}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" activeCellId="1" sqref="G9 Q15"/>
     </sheetView>
   </sheetViews>
